--- a/Code/Results/Cases/Case_1_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9987499223180666</v>
+        <v>1.023505114265091</v>
       </c>
       <c r="D2">
-        <v>1.037832367490872</v>
+        <v>1.045302441635666</v>
       </c>
       <c r="E2">
-        <v>1.005410541710537</v>
+        <v>1.02411664715054</v>
       </c>
       <c r="F2">
-        <v>1.03378273885605</v>
+        <v>1.049197042350438</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05058571226322</v>
+        <v>1.038398395490394</v>
       </c>
       <c r="J2">
-        <v>1.020968087390504</v>
+        <v>1.02868495775162</v>
       </c>
       <c r="K2">
-        <v>1.048788645888837</v>
+        <v>1.0480710626297</v>
       </c>
       <c r="L2">
-        <v>1.016795010243075</v>
+        <v>1.026946091997175</v>
       </c>
       <c r="M2">
-        <v>1.044790664825583</v>
+        <v>1.051954771982741</v>
       </c>
       <c r="N2">
-        <v>1.010974179915568</v>
+        <v>1.013620620313449</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00244552095585</v>
+        <v>1.024289244602734</v>
       </c>
       <c r="D3">
-        <v>1.040640217495192</v>
+        <v>1.045910744445182</v>
       </c>
       <c r="E3">
-        <v>1.008297829319513</v>
+        <v>1.024777724456729</v>
       </c>
       <c r="F3">
-        <v>1.037252439007072</v>
+        <v>1.049983800740937</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051736559651404</v>
+        <v>1.038582137413128</v>
       </c>
       <c r="J3">
-        <v>1.022869739890402</v>
+        <v>1.02910845225797</v>
       </c>
       <c r="K3">
-        <v>1.05077822190305</v>
+        <v>1.048491307656755</v>
       </c>
       <c r="L3">
-        <v>1.018825627498907</v>
+        <v>1.02741458972594</v>
       </c>
       <c r="M3">
-        <v>1.047429862969143</v>
+        <v>1.052553793851092</v>
       </c>
       <c r="N3">
-        <v>1.011609357796569</v>
+        <v>1.013761410948608</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004793915324419</v>
+        <v>1.02479725986983</v>
       </c>
       <c r="D4">
-        <v>1.042425643494846</v>
+        <v>1.046304641019365</v>
       </c>
       <c r="E4">
-        <v>1.010138440769146</v>
+        <v>1.025206427292934</v>
       </c>
       <c r="F4">
-        <v>1.039461443287812</v>
+        <v>1.050493708345829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052457519098694</v>
+        <v>1.038699885011438</v>
       </c>
       <c r="J4">
-        <v>1.024075782159474</v>
+        <v>1.02938244571725</v>
       </c>
       <c r="K4">
-        <v>1.052037635023061</v>
+        <v>1.048762822640324</v>
       </c>
       <c r="L4">
-        <v>1.020116024557981</v>
+        <v>1.027717997817982</v>
       </c>
       <c r="M4">
-        <v>1.049105835459405</v>
+        <v>1.052941564170229</v>
       </c>
       <c r="N4">
-        <v>1.012012122308503</v>
+        <v>1.013852475300868</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.0057712114466</v>
+        <v>1.025010978640516</v>
       </c>
       <c r="D5">
-        <v>1.043168885338675</v>
+        <v>1.046470301110373</v>
       </c>
       <c r="E5">
-        <v>1.01090579475803</v>
+        <v>1.025386877482501</v>
       </c>
       <c r="F5">
-        <v>1.040381691232641</v>
+        <v>1.050708268174184</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052755026208333</v>
+        <v>1.038749110904229</v>
       </c>
       <c r="J5">
-        <v>1.024577087943248</v>
+        <v>1.02949762271141</v>
       </c>
       <c r="K5">
-        <v>1.052560532034569</v>
+        <v>1.048876867470713</v>
       </c>
       <c r="L5">
-        <v>1.020653009714615</v>
+        <v>1.027845611109209</v>
       </c>
       <c r="M5">
-        <v>1.04980298921969</v>
+        <v>1.05310462002037</v>
       </c>
       <c r="N5">
-        <v>1.012179517630188</v>
+        <v>1.013890749532217</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005934727755299</v>
+        <v>1.025046871656822</v>
       </c>
       <c r="D6">
-        <v>1.043293252816904</v>
+        <v>1.046498119978525</v>
       </c>
       <c r="E6">
-        <v>1.011034264441237</v>
+        <v>1.025417188914988</v>
       </c>
       <c r="F6">
-        <v>1.040535717849179</v>
+        <v>1.05074430506527</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052804654138145</v>
+        <v>1.038757359984012</v>
       </c>
       <c r="J6">
-        <v>1.024660928258367</v>
+        <v>1.029516960820199</v>
       </c>
       <c r="K6">
-        <v>1.052647947931195</v>
+        <v>1.048896010187274</v>
       </c>
       <c r="L6">
-        <v>1.020742853450763</v>
+        <v>1.027867041450706</v>
       </c>
       <c r="M6">
-        <v>1.049919614083109</v>
+        <v>1.053131999943377</v>
       </c>
       <c r="N6">
-        <v>1.012207512330973</v>
+        <v>1.0138971753899</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004807012781266</v>
+        <v>1.024800115006681</v>
       </c>
       <c r="D7">
-        <v>1.042435603385281</v>
+        <v>1.046306854320927</v>
       </c>
       <c r="E7">
-        <v>1.010148719255024</v>
+        <v>1.025208837601332</v>
       </c>
       <c r="F7">
-        <v>1.03947377246069</v>
+        <v>1.050496574542592</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052461516224031</v>
+        <v>1.038700543852706</v>
       </c>
       <c r="J7">
-        <v>1.024082502903667</v>
+        <v>1.029383984758224</v>
       </c>
       <c r="K7">
-        <v>1.052044647597364</v>
+        <v>1.048764346908041</v>
       </c>
       <c r="L7">
-        <v>1.020123221200784</v>
+        <v>1.027719702756962</v>
       </c>
       <c r="M7">
-        <v>1.049115179803906</v>
+        <v>1.052943742786594</v>
       </c>
       <c r="N7">
-        <v>1.012014366565401</v>
+        <v>1.013852986759836</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000007937252601</v>
+        <v>1.023769983155966</v>
       </c>
       <c r="D8">
-        <v>1.038787911561604</v>
+        <v>1.045507960408401</v>
       </c>
       <c r="E8">
-        <v>1.006392152437864</v>
+        <v>1.024339865208232</v>
       </c>
       <c r="F8">
-        <v>1.034962961672837</v>
+        <v>1.049462759448068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050979614548884</v>
+        <v>1.038460728612568</v>
       </c>
       <c r="J8">
-        <v>1.021615909269644</v>
+        <v>1.028828086344501</v>
       </c>
       <c r="K8">
-        <v>1.049466909328383</v>
+        <v>1.048213170726473</v>
       </c>
       <c r="L8">
-        <v>1.017486228571181</v>
+        <v>1.02710436857707</v>
       </c>
       <c r="M8">
-        <v>1.045689281809389</v>
+        <v>1.052157179346933</v>
       </c>
       <c r="N8">
-        <v>1.011190574899958</v>
+        <v>1.013668208470619</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9912085081586236</v>
+        <v>1.021959667431124</v>
       </c>
       <c r="D9">
-        <v>1.032111173273982</v>
+        <v>1.044102471162545</v>
       </c>
       <c r="E9">
-        <v>0.9995522500183108</v>
+        <v>1.0228159207287</v>
       </c>
       <c r="F9">
-        <v>1.026726857773782</v>
+        <v>1.047647440057659</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048182277658159</v>
+        <v>1.038029409045867</v>
       </c>
       <c r="J9">
-        <v>1.017075582562202</v>
+        <v>1.027848304861281</v>
       </c>
       <c r="K9">
-        <v>1.044703899396258</v>
+        <v>1.047238842221121</v>
       </c>
       <c r="L9">
-        <v>1.012652595833021</v>
+        <v>1.026022115124723</v>
       </c>
       <c r="M9">
-        <v>1.039400698121228</v>
+        <v>1.05077248473013</v>
       </c>
       <c r="N9">
-        <v>1.00967372135221</v>
+        <v>1.013342345479961</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9850907795680847</v>
+        <v>1.02075619721681</v>
       </c>
       <c r="D10">
-        <v>1.027480512600757</v>
+        <v>1.043167120626321</v>
       </c>
       <c r="E10">
-        <v>0.9948316698675279</v>
+        <v>1.021804977003331</v>
       </c>
       <c r="F10">
-        <v>1.021027009817261</v>
+        <v>1.046441657623225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046185825389255</v>
+        <v>1.037736044489974</v>
       </c>
       <c r="J10">
-        <v>1.013908675707454</v>
+        <v>1.027195047625016</v>
       </c>
       <c r="K10">
-        <v>1.041370712900726</v>
+        <v>1.046587305857369</v>
       </c>
       <c r="L10">
-        <v>1.009294871359104</v>
+        <v>1.025302071371045</v>
       </c>
       <c r="M10">
-        <v>1.03502671731561</v>
+        <v>1.049850359566175</v>
       </c>
       <c r="N10">
-        <v>1.008615493924917</v>
+        <v>1.013124956056312</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9823771155419778</v>
+        <v>1.020235911968916</v>
       </c>
       <c r="D11">
-        <v>1.025429957202784</v>
+        <v>1.042762518487121</v>
       </c>
       <c r="E11">
-        <v>0.9927465470228728</v>
+        <v>1.021368441849259</v>
       </c>
       <c r="F11">
-        <v>1.018505570031382</v>
+        <v>1.045920619078857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0452885916423</v>
+        <v>1.03760764587245</v>
       </c>
       <c r="J11">
-        <v>1.012501859391887</v>
+        <v>1.026912179715096</v>
       </c>
       <c r="K11">
-        <v>1.039887724358249</v>
+        <v>1.046304731982087</v>
       </c>
       <c r="L11">
-        <v>1.007806561596278</v>
+        <v>1.0249906482566</v>
       </c>
       <c r="M11">
-        <v>1.033086737640029</v>
+        <v>1.049451330709731</v>
       </c>
       <c r="N11">
-        <v>1.008145377798918</v>
+        <v>1.013030794859287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9813589755750626</v>
+        <v>1.020042780674012</v>
       </c>
       <c r="D12">
-        <v>1.024661203993493</v>
+        <v>1.042612295022892</v>
       </c>
       <c r="E12">
-        <v>0.991965600671637</v>
+        <v>1.021206477036328</v>
       </c>
       <c r="F12">
-        <v>1.017560639121488</v>
+        <v>1.045727245652667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044950257658705</v>
+        <v>1.037559748017292</v>
       </c>
       <c r="J12">
-        <v>1.011973759611278</v>
+        <v>1.026807110801699</v>
       </c>
       <c r="K12">
-        <v>1.039330709492594</v>
+        <v>1.046199704748214</v>
       </c>
       <c r="L12">
-        <v>1.007248363015178</v>
+        <v>1.02487502746485</v>
       </c>
       <c r="M12">
-        <v>1.032358964774361</v>
+        <v>1.049303154182309</v>
       </c>
       <c r="N12">
-        <v>1.007968900733551</v>
+        <v>1.012995815137228</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9815778375531639</v>
+        <v>1.020084202269875</v>
       </c>
       <c r="D13">
-        <v>1.02482642909002</v>
+        <v>1.042644515546398</v>
       </c>
       <c r="E13">
-        <v>0.9921334121337944</v>
+        <v>1.021241210690506</v>
       </c>
       <c r="F13">
-        <v>1.017763713757017</v>
+        <v>1.045768717474697</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045023062822561</v>
+        <v>1.037570031526989</v>
       </c>
       <c r="J13">
-        <v>1.012087293230248</v>
+        <v>1.026829648382085</v>
       </c>
       <c r="K13">
-        <v>1.039450473515855</v>
+        <v>1.046222236440648</v>
       </c>
       <c r="L13">
-        <v>1.007368345142387</v>
+        <v>1.024899825977097</v>
       </c>
       <c r="M13">
-        <v>1.032515403749686</v>
+        <v>1.049334936684984</v>
       </c>
       <c r="N13">
-        <v>1.008006840734671</v>
+        <v>1.013003318582619</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9822931658277746</v>
+        <v>1.020219945098775</v>
       </c>
       <c r="D14">
-        <v>1.025366557903558</v>
+        <v>1.042750099655585</v>
       </c>
       <c r="E14">
-        <v>0.9926821266993049</v>
+        <v>1.021355050026871</v>
       </c>
       <c r="F14">
-        <v>1.018427634222729</v>
+        <v>1.045904631423003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045260728938604</v>
+        <v>1.037603690795267</v>
       </c>
       <c r="J14">
-        <v>1.012458320872972</v>
+        <v>1.026903494661599</v>
       </c>
       <c r="K14">
-        <v>1.039841808349961</v>
+        <v>1.046296051750223</v>
       </c>
       <c r="L14">
-        <v>1.007760531593363</v>
+        <v>1.024981089862921</v>
       </c>
       <c r="M14">
-        <v>1.033026727716805</v>
+        <v>1.049439081553537</v>
       </c>
       <c r="N14">
-        <v>1.00813082839583</v>
+        <v>1.013027903504691</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9827325423637695</v>
+        <v>1.020303597461508</v>
       </c>
       <c r="D15">
-        <v>1.025698402249174</v>
+        <v>1.042815162023801</v>
       </c>
       <c r="E15">
-        <v>0.9930193464114099</v>
+        <v>1.021425214610628</v>
       </c>
       <c r="F15">
-        <v>1.018835579884974</v>
+        <v>1.045988394223367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04540648786774</v>
+        <v>1.03762440225843</v>
       </c>
       <c r="J15">
-        <v>1.012686181979391</v>
+        <v>1.026948993939752</v>
       </c>
       <c r="K15">
-        <v>1.040082099231634</v>
+        <v>1.046341523004392</v>
       </c>
       <c r="L15">
-        <v>1.008001452112406</v>
+        <v>1.025031166638294</v>
       </c>
       <c r="M15">
-        <v>1.033340811980036</v>
+        <v>1.049503254074643</v>
       </c>
       <c r="N15">
-        <v>1.008206973391869</v>
+        <v>1.01304305056244</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9852694764908299</v>
+        <v>1.020790744378598</v>
       </c>
       <c r="D16">
-        <v>1.0276156219834</v>
+        <v>1.043193981569543</v>
       </c>
       <c r="E16">
-        <v>0.9949691646162011</v>
+        <v>1.021833974068419</v>
       </c>
       <c r="F16">
-        <v>1.021193196625765</v>
+        <v>1.046476260038885</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046244669909857</v>
+        <v>1.037744537100268</v>
       </c>
       <c r="J16">
-        <v>1.014001275484842</v>
+        <v>1.027213820680364</v>
       </c>
       <c r="K16">
-        <v>1.041468280528335</v>
+        <v>1.046606049914384</v>
       </c>
       <c r="L16">
-        <v>1.009392903552342</v>
+        <v>1.02532274721801</v>
       </c>
       <c r="M16">
-        <v>1.035154475593981</v>
+        <v>1.049876847381511</v>
       </c>
       <c r="N16">
-        <v>1.008646437645187</v>
+        <v>1.013131204629714</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9868432094193059</v>
+        <v>1.021096541009372</v>
       </c>
       <c r="D17">
-        <v>1.028805897753484</v>
+        <v>1.043431716508365</v>
       </c>
       <c r="E17">
-        <v>0.996181051568638</v>
+        <v>1.022090703459552</v>
       </c>
       <c r="F17">
-        <v>1.022657546140942</v>
+        <v>1.046782574293826</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046761572970385</v>
+        <v>1.037819528412602</v>
       </c>
       <c r="J17">
-        <v>1.01481654441841</v>
+        <v>1.027379939559618</v>
       </c>
       <c r="K17">
-        <v>1.042327027617936</v>
+        <v>1.046771860109198</v>
       </c>
       <c r="L17">
-        <v>1.010256373766389</v>
+        <v>1.025505745571573</v>
       </c>
       <c r="M17">
-        <v>1.036279636441764</v>
+        <v>1.050111262841604</v>
       </c>
       <c r="N17">
-        <v>1.008918870295378</v>
+        <v>1.013186493607516</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9877549355419284</v>
+        <v>1.021274986517435</v>
       </c>
       <c r="D18">
-        <v>1.02949579840663</v>
+        <v>1.043570422775539</v>
       </c>
       <c r="E18">
-        <v>0.9968839798177083</v>
+        <v>1.022240566000028</v>
       </c>
       <c r="F18">
-        <v>1.023506550943406</v>
+        <v>1.046961345614385</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047059923095671</v>
+        <v>1.037863137346693</v>
       </c>
       <c r="J18">
-        <v>1.015288664043646</v>
+        <v>1.027476833493578</v>
       </c>
       <c r="K18">
-        <v>1.042824104367345</v>
+        <v>1.046868530450914</v>
       </c>
       <c r="L18">
-        <v>1.010756717477093</v>
+        <v>1.025612520109271</v>
       </c>
       <c r="M18">
-        <v>1.036931502333776</v>
+        <v>1.050248018125191</v>
       </c>
       <c r="N18">
-        <v>1.009076632561308</v>
+        <v>1.013218739793267</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9880647712980709</v>
+        <v>1.021335845254645</v>
       </c>
       <c r="D19">
-        <v>1.029730303569139</v>
+        <v>1.043617724665067</v>
       </c>
       <c r="E19">
-        <v>0.997122998936285</v>
+        <v>1.022291684976081</v>
       </c>
       <c r="F19">
-        <v>1.023795180238963</v>
+        <v>1.047022319484402</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047161122494161</v>
+        <v>1.03787798441015</v>
       </c>
       <c r="J19">
-        <v>1.015449071877263</v>
+        <v>1.027509871713863</v>
       </c>
       <c r="K19">
-        <v>1.042992953433679</v>
+        <v>1.046901485039351</v>
       </c>
       <c r="L19">
-        <v>1.01092676745904</v>
+        <v>1.025648933308042</v>
       </c>
       <c r="M19">
-        <v>1.037153029612565</v>
+        <v>1.050294652277077</v>
       </c>
       <c r="N19">
-        <v>1.009130233521907</v>
+        <v>1.013229734396454</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9866750078346337</v>
+        <v>1.021063723688008</v>
       </c>
       <c r="D20">
-        <v>1.02867864595267</v>
+        <v>1.043406205698813</v>
       </c>
       <c r="E20">
-        <v>0.9960514374929179</v>
+        <v>1.022063146747744</v>
       </c>
       <c r="F20">
-        <v>1.022500967836679</v>
+        <v>1.046749698962011</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046706441042056</v>
+        <v>1.03781149622507</v>
       </c>
       <c r="J20">
-        <v>1.014729428264221</v>
+        <v>1.027362116607731</v>
       </c>
       <c r="K20">
-        <v>1.042235288310853</v>
+        <v>1.046754074778255</v>
       </c>
       <c r="L20">
-        <v>1.010164074777264</v>
+        <v>1.025486107981107</v>
       </c>
       <c r="M20">
-        <v>1.036159376523789</v>
+        <v>1.050086109711599</v>
       </c>
       <c r="N20">
-        <v>1.008889759562484</v>
+        <v>1.013180561924129</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9820828038244963</v>
+        <v>1.020179968731315</v>
       </c>
       <c r="D21">
-        <v>1.025207701164263</v>
+        <v>1.042719005989702</v>
       </c>
       <c r="E21">
-        <v>0.9925207238973027</v>
+        <v>1.021321522090664</v>
       </c>
       <c r="F21">
-        <v>1.018232359661893</v>
+        <v>1.045864603621648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045190883075544</v>
+        <v>1.0375937846284</v>
       </c>
       <c r="J21">
-        <v>1.012349217296745</v>
+        <v>1.026881748739649</v>
       </c>
       <c r="K21">
-        <v>1.039726741916012</v>
+        <v>1.046274316810632</v>
       </c>
       <c r="L21">
-        <v>1.007645192528422</v>
+        <v>1.024957158127038</v>
       </c>
       <c r="M21">
-        <v>1.032876355897417</v>
+        <v>1.049408412350832</v>
       </c>
       <c r="N21">
-        <v>1.008094368889763</v>
+        <v>1.013020663966254</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9791364522963316</v>
+        <v>1.019625045724756</v>
       </c>
       <c r="D22">
-        <v>1.022984247682397</v>
+        <v>1.042287306317671</v>
       </c>
       <c r="E22">
-        <v>0.9902634279385301</v>
+        <v>1.020856297499817</v>
       </c>
       <c r="F22">
-        <v>1.015499990993542</v>
+        <v>1.045309056057573</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044208632677751</v>
+        <v>1.03745571571713</v>
       </c>
       <c r="J22">
-        <v>1.010820487466848</v>
+        <v>1.026579727802773</v>
       </c>
       <c r="K22">
-        <v>1.038113730974654</v>
+        <v>1.045972288704533</v>
       </c>
       <c r="L22">
-        <v>1.006030267690448</v>
+        <v>1.0246249088686</v>
       </c>
       <c r="M22">
-        <v>1.030770519187901</v>
+        <v>1.048982552699933</v>
       </c>
       <c r="N22">
-        <v>1.007583506397456</v>
+        <v>1.012920106509282</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.980704124049777</v>
+        <v>1.019919151218925</v>
       </c>
       <c r="D23">
-        <v>1.02416693088183</v>
+        <v>1.042516122716226</v>
       </c>
       <c r="E23">
-        <v>0.9914637008958165</v>
+        <v>1.021102820321341</v>
       </c>
       <c r="F23">
-        <v>1.016953188546098</v>
+        <v>1.045603471816485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044732173928137</v>
+        <v>1.037529020678843</v>
       </c>
       <c r="J23">
-        <v>1.011634020615498</v>
+        <v>1.026739833867433</v>
       </c>
       <c r="K23">
-        <v>1.038972281540889</v>
+        <v>1.04613243551892</v>
       </c>
       <c r="L23">
-        <v>1.006889399751409</v>
+        <v>1.024801009434615</v>
       </c>
       <c r="M23">
-        <v>1.03189090509173</v>
+        <v>1.049208286000809</v>
       </c>
       <c r="N23">
-        <v>1.007855368631219</v>
+        <v>1.01297341596911</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9867510300355438</v>
+        <v>1.021078552177496</v>
       </c>
       <c r="D24">
-        <v>1.028736159041421</v>
+        <v>1.043417732813776</v>
       </c>
       <c r="E24">
-        <v>0.9961100166867336</v>
+        <v>1.022075598079542</v>
       </c>
       <c r="F24">
-        <v>1.022571734647986</v>
+        <v>1.04676455359017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046731362513857</v>
+        <v>1.037815126033556</v>
       </c>
       <c r="J24">
-        <v>1.014768802836626</v>
+        <v>1.027370170033907</v>
       </c>
       <c r="K24">
-        <v>1.042276753132748</v>
+        <v>1.046762111339713</v>
       </c>
       <c r="L24">
-        <v>1.010205790912731</v>
+        <v>1.02549498125594</v>
       </c>
       <c r="M24">
-        <v>1.036213730448909</v>
+        <v>1.050097475252234</v>
       </c>
       <c r="N24">
-        <v>1.008902916977303</v>
+        <v>1.013183242205669</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9935260864180873</v>
+        <v>1.022427084777717</v>
       </c>
       <c r="D25">
-        <v>1.033867987535709</v>
+        <v>1.04446554313846</v>
       </c>
       <c r="E25">
-        <v>1.001347889281709</v>
+        <v>1.023209020552807</v>
       </c>
       <c r="F25">
-        <v>1.028891736709223</v>
+        <v>1.048115972303808</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048928148257877</v>
+        <v>1.03814194496918</v>
       </c>
       <c r="J25">
-        <v>1.018273305230509</v>
+        <v>1.02810161972978</v>
       </c>
       <c r="K25">
-        <v>1.045962350034203</v>
+        <v>1.04749108581684</v>
       </c>
       <c r="L25">
-        <v>1.013925316978925</v>
+        <v>1.02630165266805</v>
       </c>
       <c r="M25">
-        <v>1.04105751038117</v>
+        <v>1.051130292454154</v>
       </c>
       <c r="N25">
-        <v>1.010073906750687</v>
+        <v>1.013426616863415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023505114265091</v>
+        <v>0.9987499223180668</v>
       </c>
       <c r="D2">
-        <v>1.045302441635666</v>
+        <v>1.037832367490872</v>
       </c>
       <c r="E2">
-        <v>1.02411664715054</v>
+        <v>1.005410541710537</v>
       </c>
       <c r="F2">
-        <v>1.049197042350438</v>
+        <v>1.033782738856051</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038398395490394</v>
+        <v>1.05058571226322</v>
       </c>
       <c r="J2">
-        <v>1.02868495775162</v>
+        <v>1.020968087390504</v>
       </c>
       <c r="K2">
-        <v>1.0480710626297</v>
+        <v>1.048788645888837</v>
       </c>
       <c r="L2">
-        <v>1.026946091997175</v>
+        <v>1.016795010243075</v>
       </c>
       <c r="M2">
-        <v>1.051954771982741</v>
+        <v>1.044790664825584</v>
       </c>
       <c r="N2">
-        <v>1.013620620313449</v>
+        <v>1.010974179915568</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024289244602734</v>
+        <v>1.00244552095585</v>
       </c>
       <c r="D3">
-        <v>1.045910744445182</v>
+        <v>1.040640217495192</v>
       </c>
       <c r="E3">
-        <v>1.024777724456729</v>
+        <v>1.008297829319512</v>
       </c>
       <c r="F3">
-        <v>1.049983800740937</v>
+        <v>1.037252439007072</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038582137413128</v>
+        <v>1.051736559651404</v>
       </c>
       <c r="J3">
-        <v>1.02910845225797</v>
+        <v>1.022869739890402</v>
       </c>
       <c r="K3">
-        <v>1.048491307656755</v>
+        <v>1.05077822190305</v>
       </c>
       <c r="L3">
-        <v>1.02741458972594</v>
+        <v>1.018825627498907</v>
       </c>
       <c r="M3">
-        <v>1.052553793851092</v>
+        <v>1.047429862969143</v>
       </c>
       <c r="N3">
-        <v>1.013761410948608</v>
+        <v>1.01160935779657</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02479725986983</v>
+        <v>1.004793915324419</v>
       </c>
       <c r="D4">
-        <v>1.046304641019365</v>
+        <v>1.042425643494846</v>
       </c>
       <c r="E4">
-        <v>1.025206427292934</v>
+        <v>1.010138440769146</v>
       </c>
       <c r="F4">
-        <v>1.050493708345829</v>
+        <v>1.039461443287812</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038699885011438</v>
+        <v>1.052457519098694</v>
       </c>
       <c r="J4">
-        <v>1.02938244571725</v>
+        <v>1.024075782159474</v>
       </c>
       <c r="K4">
-        <v>1.048762822640324</v>
+        <v>1.052037635023061</v>
       </c>
       <c r="L4">
-        <v>1.027717997817982</v>
+        <v>1.020116024557981</v>
       </c>
       <c r="M4">
-        <v>1.052941564170229</v>
+        <v>1.049105835459406</v>
       </c>
       <c r="N4">
-        <v>1.013852475300868</v>
+        <v>1.012012122308502</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025010978640516</v>
+        <v>1.0057712114466</v>
       </c>
       <c r="D5">
-        <v>1.046470301110373</v>
+        <v>1.043168885338675</v>
       </c>
       <c r="E5">
-        <v>1.025386877482501</v>
+        <v>1.01090579475803</v>
       </c>
       <c r="F5">
-        <v>1.050708268174184</v>
+        <v>1.04038169123264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038749110904229</v>
+        <v>1.052755026208332</v>
       </c>
       <c r="J5">
-        <v>1.02949762271141</v>
+        <v>1.024577087943248</v>
       </c>
       <c r="K5">
-        <v>1.048876867470713</v>
+        <v>1.052560532034569</v>
       </c>
       <c r="L5">
-        <v>1.027845611109209</v>
+        <v>1.020653009714615</v>
       </c>
       <c r="M5">
-        <v>1.05310462002037</v>
+        <v>1.049802989219689</v>
       </c>
       <c r="N5">
-        <v>1.013890749532217</v>
+        <v>1.012179517630188</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025046871656822</v>
+        <v>1.005934727755298</v>
       </c>
       <c r="D6">
-        <v>1.046498119978525</v>
+        <v>1.043293252816903</v>
       </c>
       <c r="E6">
-        <v>1.025417188914988</v>
+        <v>1.011034264441236</v>
       </c>
       <c r="F6">
-        <v>1.05074430506527</v>
+        <v>1.040535717849177</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038757359984012</v>
+        <v>1.052804654138144</v>
       </c>
       <c r="J6">
-        <v>1.029516960820199</v>
+        <v>1.024660928258365</v>
       </c>
       <c r="K6">
-        <v>1.048896010187274</v>
+        <v>1.052647947931194</v>
       </c>
       <c r="L6">
-        <v>1.027867041450706</v>
+        <v>1.020742853450762</v>
       </c>
       <c r="M6">
-        <v>1.053131999943377</v>
+        <v>1.049919614083108</v>
       </c>
       <c r="N6">
-        <v>1.0138971753899</v>
+        <v>1.012207512330972</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024800115006681</v>
+        <v>1.004807012781266</v>
       </c>
       <c r="D7">
-        <v>1.046306854320927</v>
+        <v>1.042435603385281</v>
       </c>
       <c r="E7">
-        <v>1.025208837601332</v>
+        <v>1.010148719255024</v>
       </c>
       <c r="F7">
-        <v>1.050496574542592</v>
+        <v>1.03947377246069</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038700543852706</v>
+        <v>1.052461516224031</v>
       </c>
       <c r="J7">
-        <v>1.029383984758224</v>
+        <v>1.024082502903667</v>
       </c>
       <c r="K7">
-        <v>1.048764346908041</v>
+        <v>1.052044647597364</v>
       </c>
       <c r="L7">
-        <v>1.027719702756962</v>
+        <v>1.020123221200784</v>
       </c>
       <c r="M7">
-        <v>1.052943742786594</v>
+        <v>1.049115179803906</v>
       </c>
       <c r="N7">
-        <v>1.013852986759836</v>
+        <v>1.012014366565401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023769983155966</v>
+        <v>1.000007937252601</v>
       </c>
       <c r="D8">
-        <v>1.045507960408401</v>
+        <v>1.038787911561604</v>
       </c>
       <c r="E8">
-        <v>1.024339865208232</v>
+        <v>1.006392152437864</v>
       </c>
       <c r="F8">
-        <v>1.049462759448068</v>
+        <v>1.034962961672836</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038460728612568</v>
+        <v>1.050979614548884</v>
       </c>
       <c r="J8">
-        <v>1.028828086344501</v>
+        <v>1.021615909269644</v>
       </c>
       <c r="K8">
-        <v>1.048213170726473</v>
+        <v>1.049466909328383</v>
       </c>
       <c r="L8">
-        <v>1.02710436857707</v>
+        <v>1.017486228571181</v>
       </c>
       <c r="M8">
-        <v>1.052157179346933</v>
+        <v>1.045689281809388</v>
       </c>
       <c r="N8">
-        <v>1.013668208470619</v>
+        <v>1.011190574899958</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021959667431124</v>
+        <v>0.9912085081586233</v>
       </c>
       <c r="D9">
-        <v>1.044102471162545</v>
+        <v>1.032111173273982</v>
       </c>
       <c r="E9">
-        <v>1.0228159207287</v>
+        <v>0.9995522500183107</v>
       </c>
       <c r="F9">
-        <v>1.047647440057659</v>
+        <v>1.026726857773781</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038029409045867</v>
+        <v>1.048182277658159</v>
       </c>
       <c r="J9">
-        <v>1.027848304861281</v>
+        <v>1.017075582562201</v>
       </c>
       <c r="K9">
-        <v>1.047238842221121</v>
+        <v>1.044703899396258</v>
       </c>
       <c r="L9">
-        <v>1.026022115124723</v>
+        <v>1.012652595833021</v>
       </c>
       <c r="M9">
-        <v>1.05077248473013</v>
+        <v>1.039400698121228</v>
       </c>
       <c r="N9">
-        <v>1.013342345479961</v>
+        <v>1.00967372135221</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02075619721681</v>
+        <v>0.9850907795680841</v>
       </c>
       <c r="D10">
-        <v>1.043167120626321</v>
+        <v>1.027480512600757</v>
       </c>
       <c r="E10">
-        <v>1.021804977003331</v>
+        <v>0.9948316698675275</v>
       </c>
       <c r="F10">
-        <v>1.046441657623225</v>
+        <v>1.02102700981726</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037736044489974</v>
+        <v>1.046185825389254</v>
       </c>
       <c r="J10">
-        <v>1.027195047625016</v>
+        <v>1.013908675707454</v>
       </c>
       <c r="K10">
-        <v>1.046587305857369</v>
+        <v>1.041370712900726</v>
       </c>
       <c r="L10">
-        <v>1.025302071371045</v>
+        <v>1.009294871359104</v>
       </c>
       <c r="M10">
-        <v>1.049850359566175</v>
+        <v>1.03502671731561</v>
       </c>
       <c r="N10">
-        <v>1.013124956056312</v>
+        <v>1.008615493924917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020235911968916</v>
+        <v>0.9823771155419766</v>
       </c>
       <c r="D11">
-        <v>1.042762518487121</v>
+        <v>1.025429957202783</v>
       </c>
       <c r="E11">
-        <v>1.021368441849259</v>
+        <v>0.9927465470228717</v>
       </c>
       <c r="F11">
-        <v>1.045920619078857</v>
+        <v>1.018505570031382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03760764587245</v>
+        <v>1.0452885916423</v>
       </c>
       <c r="J11">
-        <v>1.026912179715096</v>
+        <v>1.012501859391886</v>
       </c>
       <c r="K11">
-        <v>1.046304731982087</v>
+        <v>1.039887724358249</v>
       </c>
       <c r="L11">
-        <v>1.0249906482566</v>
+        <v>1.007806561596277</v>
       </c>
       <c r="M11">
-        <v>1.049451330709731</v>
+        <v>1.033086737640028</v>
       </c>
       <c r="N11">
-        <v>1.013030794859287</v>
+        <v>1.008145377798918</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020042780674012</v>
+        <v>0.9813589755750615</v>
       </c>
       <c r="D12">
-        <v>1.042612295022892</v>
+        <v>1.024661203993493</v>
       </c>
       <c r="E12">
-        <v>1.021206477036328</v>
+        <v>0.9919656006716362</v>
       </c>
       <c r="F12">
-        <v>1.045727245652667</v>
+        <v>1.017560639121487</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037559748017292</v>
+        <v>1.044950257658704</v>
       </c>
       <c r="J12">
-        <v>1.026807110801699</v>
+        <v>1.011973759611277</v>
       </c>
       <c r="K12">
-        <v>1.046199704748214</v>
+        <v>1.039330709492594</v>
       </c>
       <c r="L12">
-        <v>1.02487502746485</v>
+        <v>1.007248363015177</v>
       </c>
       <c r="M12">
-        <v>1.049303154182309</v>
+        <v>1.03235896477436</v>
       </c>
       <c r="N12">
-        <v>1.012995815137228</v>
+        <v>1.00796890073355</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020084202269875</v>
+        <v>0.981577837553163</v>
       </c>
       <c r="D13">
-        <v>1.042644515546398</v>
+        <v>1.02482642909002</v>
       </c>
       <c r="E13">
-        <v>1.021241210690506</v>
+        <v>0.9921334121337934</v>
       </c>
       <c r="F13">
-        <v>1.045768717474697</v>
+        <v>1.017763713757017</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037570031526989</v>
+        <v>1.045023062822561</v>
       </c>
       <c r="J13">
-        <v>1.026829648382085</v>
+        <v>1.012087293230248</v>
       </c>
       <c r="K13">
-        <v>1.046222236440648</v>
+        <v>1.039450473515854</v>
       </c>
       <c r="L13">
-        <v>1.024899825977097</v>
+        <v>1.007368345142386</v>
       </c>
       <c r="M13">
-        <v>1.049334936684984</v>
+        <v>1.032515403749685</v>
       </c>
       <c r="N13">
-        <v>1.013003318582619</v>
+        <v>1.00800684073467</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020219945098775</v>
+        <v>0.9822931658277735</v>
       </c>
       <c r="D14">
-        <v>1.042750099655585</v>
+        <v>1.025366557903557</v>
       </c>
       <c r="E14">
-        <v>1.021355050026871</v>
+        <v>0.9926821266993038</v>
       </c>
       <c r="F14">
-        <v>1.045904631423003</v>
+        <v>1.018427634222728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037603690795267</v>
+        <v>1.045260728938604</v>
       </c>
       <c r="J14">
-        <v>1.026903494661599</v>
+        <v>1.012458320872972</v>
       </c>
       <c r="K14">
-        <v>1.046296051750223</v>
+        <v>1.039841808349961</v>
       </c>
       <c r="L14">
-        <v>1.024981089862921</v>
+        <v>1.007760531593362</v>
       </c>
       <c r="M14">
-        <v>1.049439081553537</v>
+        <v>1.033026727716805</v>
       </c>
       <c r="N14">
-        <v>1.013027903504691</v>
+        <v>1.00813082839583</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020303597461508</v>
+        <v>0.9827325423637695</v>
       </c>
       <c r="D15">
-        <v>1.042815162023801</v>
+        <v>1.025698402249174</v>
       </c>
       <c r="E15">
-        <v>1.021425214610628</v>
+        <v>0.9930193464114099</v>
       </c>
       <c r="F15">
-        <v>1.045988394223367</v>
+        <v>1.018835579884974</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03762440225843</v>
+        <v>1.04540648786774</v>
       </c>
       <c r="J15">
-        <v>1.026948993939752</v>
+        <v>1.012686181979391</v>
       </c>
       <c r="K15">
-        <v>1.046341523004392</v>
+        <v>1.040082099231634</v>
       </c>
       <c r="L15">
-        <v>1.025031166638294</v>
+        <v>1.008001452112406</v>
       </c>
       <c r="M15">
-        <v>1.049503254074643</v>
+        <v>1.033340811980037</v>
       </c>
       <c r="N15">
-        <v>1.01304305056244</v>
+        <v>1.008206973391869</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020790744378598</v>
+        <v>0.9852694764908293</v>
       </c>
       <c r="D16">
-        <v>1.043193981569543</v>
+        <v>1.027615621983399</v>
       </c>
       <c r="E16">
-        <v>1.021833974068419</v>
+        <v>0.9949691646162006</v>
       </c>
       <c r="F16">
-        <v>1.046476260038885</v>
+        <v>1.021193196625764</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037744537100268</v>
+        <v>1.046244669909857</v>
       </c>
       <c r="J16">
-        <v>1.027213820680364</v>
+        <v>1.014001275484842</v>
       </c>
       <c r="K16">
-        <v>1.046606049914384</v>
+        <v>1.041468280528334</v>
       </c>
       <c r="L16">
-        <v>1.02532274721801</v>
+        <v>1.009392903552341</v>
       </c>
       <c r="M16">
-        <v>1.049876847381511</v>
+        <v>1.03515447559398</v>
       </c>
       <c r="N16">
-        <v>1.013131204629714</v>
+        <v>1.008646437645187</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021096541009372</v>
+        <v>0.9868432094193053</v>
       </c>
       <c r="D17">
-        <v>1.043431716508365</v>
+        <v>1.028805897753484</v>
       </c>
       <c r="E17">
-        <v>1.022090703459552</v>
+        <v>0.9961810515686375</v>
       </c>
       <c r="F17">
-        <v>1.046782574293826</v>
+        <v>1.022657546140942</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037819528412602</v>
+        <v>1.046761572970384</v>
       </c>
       <c r="J17">
-        <v>1.027379939559618</v>
+        <v>1.014816544418409</v>
       </c>
       <c r="K17">
-        <v>1.046771860109198</v>
+        <v>1.042327027617936</v>
       </c>
       <c r="L17">
-        <v>1.025505745571573</v>
+        <v>1.010256373766388</v>
       </c>
       <c r="M17">
-        <v>1.050111262841604</v>
+        <v>1.036279636441764</v>
       </c>
       <c r="N17">
-        <v>1.013186493607516</v>
+        <v>1.008918870295378</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021274986517435</v>
+        <v>0.9877549355419276</v>
       </c>
       <c r="D18">
-        <v>1.043570422775539</v>
+        <v>1.02949579840663</v>
       </c>
       <c r="E18">
-        <v>1.022240566000028</v>
+        <v>0.9968839798177076</v>
       </c>
       <c r="F18">
-        <v>1.046961345614385</v>
+        <v>1.023506550943405</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037863137346693</v>
+        <v>1.047059923095671</v>
       </c>
       <c r="J18">
-        <v>1.027476833493578</v>
+        <v>1.015288664043646</v>
       </c>
       <c r="K18">
-        <v>1.046868530450914</v>
+        <v>1.042824104367345</v>
       </c>
       <c r="L18">
-        <v>1.025612520109271</v>
+        <v>1.010756717477093</v>
       </c>
       <c r="M18">
-        <v>1.050248018125191</v>
+        <v>1.036931502333776</v>
       </c>
       <c r="N18">
-        <v>1.013218739793267</v>
+        <v>1.009076632561308</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021335845254645</v>
+        <v>0.9880647712980706</v>
       </c>
       <c r="D19">
-        <v>1.043617724665067</v>
+        <v>1.029730303569139</v>
       </c>
       <c r="E19">
-        <v>1.022291684976081</v>
+        <v>0.9971229989362845</v>
       </c>
       <c r="F19">
-        <v>1.047022319484402</v>
+        <v>1.023795180238962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03787798441015</v>
+        <v>1.047161122494161</v>
       </c>
       <c r="J19">
-        <v>1.027509871713863</v>
+        <v>1.015449071877262</v>
       </c>
       <c r="K19">
-        <v>1.046901485039351</v>
+        <v>1.042992953433679</v>
       </c>
       <c r="L19">
-        <v>1.025648933308042</v>
+        <v>1.01092676745904</v>
       </c>
       <c r="M19">
-        <v>1.050294652277077</v>
+        <v>1.037153029612565</v>
       </c>
       <c r="N19">
-        <v>1.013229734396454</v>
+        <v>1.009130233521907</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021063723688008</v>
+        <v>0.9866750078346335</v>
       </c>
       <c r="D20">
-        <v>1.043406205698813</v>
+        <v>1.02867864595267</v>
       </c>
       <c r="E20">
-        <v>1.022063146747744</v>
+        <v>0.9960514374929181</v>
       </c>
       <c r="F20">
-        <v>1.046749698962011</v>
+        <v>1.022500967836679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03781149622507</v>
+        <v>1.046706441042057</v>
       </c>
       <c r="J20">
-        <v>1.027362116607731</v>
+        <v>1.014729428264221</v>
       </c>
       <c r="K20">
-        <v>1.046754074778255</v>
+        <v>1.042235288310853</v>
       </c>
       <c r="L20">
-        <v>1.025486107981107</v>
+        <v>1.010164074777264</v>
       </c>
       <c r="M20">
-        <v>1.050086109711599</v>
+        <v>1.036159376523789</v>
       </c>
       <c r="N20">
-        <v>1.013180561924129</v>
+        <v>1.008889759562484</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020179968731315</v>
+        <v>0.9820828038244956</v>
       </c>
       <c r="D21">
-        <v>1.042719005989702</v>
+        <v>1.025207701164262</v>
       </c>
       <c r="E21">
-        <v>1.021321522090664</v>
+        <v>0.9925207238973018</v>
       </c>
       <c r="F21">
-        <v>1.045864603621648</v>
+        <v>1.018232359661892</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0375937846284</v>
+        <v>1.045190883075544</v>
       </c>
       <c r="J21">
-        <v>1.026881748739649</v>
+        <v>1.012349217296744</v>
       </c>
       <c r="K21">
-        <v>1.046274316810632</v>
+        <v>1.039726741916012</v>
       </c>
       <c r="L21">
-        <v>1.024957158127038</v>
+        <v>1.007645192528421</v>
       </c>
       <c r="M21">
-        <v>1.049408412350832</v>
+        <v>1.032876355897416</v>
       </c>
       <c r="N21">
-        <v>1.013020663966254</v>
+        <v>1.008094368889763</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019625045724756</v>
+        <v>0.9791364522963313</v>
       </c>
       <c r="D22">
-        <v>1.042287306317671</v>
+        <v>1.022984247682396</v>
       </c>
       <c r="E22">
-        <v>1.020856297499817</v>
+        <v>0.9902634279385298</v>
       </c>
       <c r="F22">
-        <v>1.045309056057573</v>
+        <v>1.015499990993542</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03745571571713</v>
+        <v>1.044208632677751</v>
       </c>
       <c r="J22">
-        <v>1.026579727802773</v>
+        <v>1.010820487466847</v>
       </c>
       <c r="K22">
-        <v>1.045972288704533</v>
+        <v>1.038113730974653</v>
       </c>
       <c r="L22">
-        <v>1.0246249088686</v>
+        <v>1.006030267690447</v>
       </c>
       <c r="M22">
-        <v>1.048982552699933</v>
+        <v>1.0307705191879</v>
       </c>
       <c r="N22">
-        <v>1.012920106509282</v>
+        <v>1.007583506397456</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019919151218925</v>
+        <v>0.9807041240497762</v>
       </c>
       <c r="D23">
-        <v>1.042516122716226</v>
+        <v>1.02416693088183</v>
       </c>
       <c r="E23">
-        <v>1.021102820321341</v>
+        <v>0.9914637008958157</v>
       </c>
       <c r="F23">
-        <v>1.045603471816485</v>
+        <v>1.016953188546098</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037529020678843</v>
+        <v>1.044732173928137</v>
       </c>
       <c r="J23">
-        <v>1.026739833867433</v>
+        <v>1.011634020615497</v>
       </c>
       <c r="K23">
-        <v>1.04613243551892</v>
+        <v>1.038972281540889</v>
       </c>
       <c r="L23">
-        <v>1.024801009434615</v>
+        <v>1.006889399751409</v>
       </c>
       <c r="M23">
-        <v>1.049208286000809</v>
+        <v>1.03189090509173</v>
       </c>
       <c r="N23">
-        <v>1.01297341596911</v>
+        <v>1.007855368631219</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021078552177496</v>
+        <v>0.9867510300355435</v>
       </c>
       <c r="D24">
-        <v>1.043417732813776</v>
+        <v>1.028736159041421</v>
       </c>
       <c r="E24">
-        <v>1.022075598079542</v>
+        <v>0.9961100166867336</v>
       </c>
       <c r="F24">
-        <v>1.04676455359017</v>
+        <v>1.022571734647986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037815126033556</v>
+        <v>1.046731362513857</v>
       </c>
       <c r="J24">
-        <v>1.027370170033907</v>
+        <v>1.014768802836626</v>
       </c>
       <c r="K24">
-        <v>1.046762111339713</v>
+        <v>1.042276753132749</v>
       </c>
       <c r="L24">
-        <v>1.02549498125594</v>
+        <v>1.010205790912731</v>
       </c>
       <c r="M24">
-        <v>1.050097475252234</v>
+        <v>1.036213730448909</v>
       </c>
       <c r="N24">
-        <v>1.013183242205669</v>
+        <v>1.008902916977303</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022427084777717</v>
+        <v>0.9935260864180867</v>
       </c>
       <c r="D25">
-        <v>1.04446554313846</v>
+        <v>1.033867987535708</v>
       </c>
       <c r="E25">
-        <v>1.023209020552807</v>
+        <v>1.001347889281709</v>
       </c>
       <c r="F25">
-        <v>1.048115972303808</v>
+        <v>1.028891736709223</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03814194496918</v>
+        <v>1.048928148257877</v>
       </c>
       <c r="J25">
-        <v>1.02810161972978</v>
+        <v>1.018273305230508</v>
       </c>
       <c r="K25">
-        <v>1.04749108581684</v>
+        <v>1.045962350034202</v>
       </c>
       <c r="L25">
-        <v>1.02630165266805</v>
+        <v>1.013925316978924</v>
       </c>
       <c r="M25">
-        <v>1.051130292454154</v>
+        <v>1.04105751038117</v>
       </c>
       <c r="N25">
-        <v>1.013426616863415</v>
+        <v>1.010073906750687</v>
       </c>
     </row>
   </sheetData>
